--- a/HW4/Tables.xlsx
+++ b/HW4/Tables.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Google Drive File Stream/My Drive/01_Courses/2020-2021 Winter Quarter/AMATH 582/UW-AMATH-582/HW4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2834296A-05A9-1E48-BC49-F53240FFEAEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447DC3C5-C8E5-4A44-B43B-2393DF8F66AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{1C21822A-DF64-2543-9B26-0133C40C327C}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{1C21822A-DF64-2543-9B26-0133C40C327C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LDA" sheetId="1" r:id="rId1"/>
+    <sheet name="DT" sheetId="2" r:id="rId2"/>
+    <sheet name="SVM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>Digits</t>
   </si>
@@ -403,7 +405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00656BBB-CD3F-DE48-A2C1-8A623D89DA58}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
@@ -797,4 +799,416 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E656E2E-C3DB-0540-8CE2-DE13922AE525}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.99178839320963397</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.95025671239793896</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.94947735191636695</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.97050573735656298</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.92445345557124303</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.95380457731612001</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.97735477518871605</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.94861559368098602</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.97169811320754096</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.96826771653543997</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.95937232968229103</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.98831849968213803</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.97385513442407701</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.96366508688784402</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.97524409933113498</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.90177082506152095</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.98140414466944703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.91827280999253502</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.94847457627119702</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.91572194393178097</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.71556079488047497</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.96678393193159695</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.90287069184521596</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.96607037876878998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.96851248642780097</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.82548476454295105</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.96364843555481405</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.95966440787351603</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.78918377566353504</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.95082781456952903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.944508567877126</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.93137755102042097</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.860411332287075</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.92414264944836999</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.73878381816640204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.941970191374915</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.92931713161048901</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.80136621717534395</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.92849604221637505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.97512927850283704</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.93355425269778203</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.96957950619365396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.90756025090790404</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.671770099885445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.90322033898307197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE37DE3-3206-FA4A-A2E0-1FE60CC7B2C5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HW4/Tables.xlsx
+++ b/HW4/Tables.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Google Drive File Stream/My Drive/01_Courses/2020-2021 Winter Quarter/AMATH 582/UW-AMATH-582/HW4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447DC3C5-C8E5-4A44-B43B-2393DF8F66AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7451FAC-DBE6-304D-8A48-C8EF658D70AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{1C21822A-DF64-2543-9B26-0133C40C327C}"/>
   </bookViews>
   <sheets>
     <sheet name="LDA" sheetId="1" r:id="rId1"/>
-    <sheet name="DT" sheetId="2" r:id="rId2"/>
-    <sheet name="SVM" sheetId="3" r:id="rId3"/>
+    <sheet name="compare" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -403,398 +402,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00656BBB-CD3F-DE48-A2C1-8A623D89DA58}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K11"/>
+      <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1">
-        <v>8</v>
-      </c>
-      <c r="K1">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>0.99810874704491703</v>
       </c>
       <c r="C2" s="2">
-        <v>0.98734701934464997</v>
+        <v>0.97316103379721697</v>
       </c>
       <c r="D2" s="2">
-        <v>0.95500631047538898</v>
+        <v>0.97939698492462302</v>
       </c>
       <c r="E2" s="2">
-        <v>0.96754458730817094</v>
+        <v>0.99133537206931699</v>
       </c>
       <c r="F2" s="2">
-        <v>0.97280067998300002</v>
+        <v>0.94978632478632496</v>
       </c>
       <c r="G2" s="2">
-        <v>0.93325253415601594</v>
+        <v>0.96233230134158898</v>
       </c>
       <c r="H2" s="2">
-        <v>0.95920219501899495</v>
+        <v>0.98954183266932305</v>
       </c>
       <c r="I2" s="2">
-        <v>0.97631255127153405</v>
+        <v>0.979529170931423</v>
       </c>
       <c r="J2" s="2">
-        <v>0.95169851380042503</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.97229473684210499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.98139768728003995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>0.97231195200738396</v>
       </c>
       <c r="D3" s="2">
-        <v>0.96086614173228302</v>
+        <v>0.98275058275058302</v>
       </c>
       <c r="E3" s="2">
-        <v>0.94034576534576497</v>
+        <v>0.99338686820973099</v>
       </c>
       <c r="F3" s="2">
-        <v>0.97911367249602499</v>
+        <v>0.99013320177602404</v>
       </c>
       <c r="G3" s="2">
-        <v>0.97884457236842104</v>
+        <v>0.98041089345437205</v>
       </c>
       <c r="H3" s="2">
-        <v>0.94616903633491301</v>
+        <v>0.97364771151178897</v>
       </c>
       <c r="I3" s="2">
-        <v>0.96641676278354505</v>
+        <v>0.94452347083926003</v>
       </c>
       <c r="J3" s="2">
-        <v>0.83971405877680705</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.97147360126083504</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.98647388059701502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>0.95886385896180204</v>
       </c>
       <c r="E4" s="2">
-        <v>0.914454094292804</v>
+        <v>0.97120158887785502</v>
       </c>
       <c r="F4" s="2">
-        <v>0.93658898305084703</v>
+        <v>0.95738045738045696</v>
       </c>
       <c r="G4" s="2">
-        <v>0.90384446397188001</v>
+        <v>0.92663316582914601</v>
       </c>
       <c r="H4" s="2">
-        <v>0.66681397306397305</v>
+        <v>0.96262135922330105</v>
       </c>
       <c r="I4" s="2">
-        <v>0.96429447852760797</v>
+        <v>0.93270189431704897</v>
       </c>
       <c r="J4" s="2">
-        <v>0.88475867908552097</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.95967674223341703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.969132778049976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>0.98644578313252995</v>
       </c>
       <c r="F5" s="2">
-        <v>0.96946532999164603</v>
+        <v>0.89852786540483698</v>
       </c>
       <c r="G5" s="2">
-        <v>0.82023809523809499</v>
+        <v>0.98170731707317105</v>
       </c>
       <c r="H5" s="2">
-        <v>0.95653526970954394</v>
+        <v>0.96368989205102995</v>
       </c>
       <c r="I5" s="2">
-        <v>0.95250100847115804</v>
+        <v>0.89868951612903203</v>
       </c>
       <c r="J5" s="2">
-        <v>0.80690734557596</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.94931705298013302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.96285289747399705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>0.97065101387406605</v>
       </c>
       <c r="G6" s="2">
-        <v>0.95348579040852599</v>
+        <v>0.98144329896907201</v>
       </c>
       <c r="H6" s="2">
-        <v>0.94215561224489797</v>
+        <v>0.96368159203980097</v>
       </c>
       <c r="I6" s="2">
-        <v>0.86767864518793902</v>
+        <v>0.96932515337423297</v>
       </c>
       <c r="J6" s="2">
-        <v>0.93545765611633902</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.73187022900763399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.81617277749874395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>0.94918918918918904</v>
       </c>
       <c r="H7" s="2">
-        <v>0.92458112874779497</v>
+        <v>0.97239583333333302</v>
       </c>
       <c r="I7" s="2">
-        <v>0.91623876765083401</v>
+        <v>0.89657020364415896</v>
       </c>
       <c r="J7" s="2">
-        <v>0.79791481810115295</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.93260773966578703</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.95476065228826901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>0.98640483383685795</v>
       </c>
       <c r="I8" s="2">
-        <v>0.978580221583914</v>
+        <v>0.97308488612836397</v>
       </c>
       <c r="J8" s="2">
-        <v>0.91888275276125697</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.97628475147430505</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.98627351296390398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>0.94005994005993998</v>
       </c>
       <c r="J9" s="2">
-        <v>0.89498555509698696</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.68860008186655697</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.90181639666175795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.89917372881355895</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
+        <v>0.93192133131618804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1199,16 +1072,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE37DE3-3206-FA4A-A2E0-1FE60CC7B2C5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/HW4/Tables.xlsx
+++ b/HW4/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Google Drive File Stream/My Drive/01_Courses/2020-2021 Winter Quarter/AMATH 582/UW-AMATH-582/HW4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7451FAC-DBE6-304D-8A48-C8EF658D70AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B2300C-130A-4F47-8546-F02471323F50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{1C21822A-DF64-2543-9B26-0133C40C327C}"/>
   </bookViews>
@@ -35,9 +35,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Digits</t>
+  </si>
+  <si>
+    <t>0 and 1</t>
+  </si>
+  <si>
+    <t>Pairs</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>LDA</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>4 and 9</t>
   </si>
 </sst>
 </file>
@@ -81,12 +102,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,397 +707,171 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
+      <c r="B3" s="5">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="J1">
-        <v>8</v>
-      </c>
-      <c r="K1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.99178839320963397</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.95025671239793896</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.94947735191636695</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.97050573735656298</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.92445345557124303</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.95380457731612001</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.97735477518871605</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.94861559368098602</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.97169811320754096</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.96826771653543997</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.95937232968229103</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.98831849968213803</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.97385513442407701</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.96366508688784402</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.97524409933113498</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.90177082506152095</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.98140414466944703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>0.81620000000000004</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>0.88049999999999995</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.91827280999253502</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.94847457627119702</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.91572194393178097</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.71556079488047497</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.96678393193159695</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.90287069184521596</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.96607037876878998</v>
-      </c>
+        <v>0.93869999999999998</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.96851248642780097</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.82548476454295105</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.96364843555481405</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.95966440787351603</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.78918377566353504</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.95082781456952903</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.944508567877126</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.93137755102042097</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.860411332287075</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.92414264944836999</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.73878381816640204</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.941970191374915</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.92931713161048901</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.80136621717534395</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.92849604221637505</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.97512927850283704</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.93355425269778203</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.96957950619365396</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.90756025090790404</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.671770099885445</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.90322033898307197</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HW4/Tables.xlsx
+++ b/HW4/Tables.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Google Drive File Stream/My Drive/01_Courses/2020-2021 Winter Quarter/AMATH 582/UW-AMATH-582/HW4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B2300C-130A-4F47-8546-F02471323F50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EC32A6-96A0-934A-B260-B92F35AF9E2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{1C21822A-DF64-2543-9B26-0133C40C327C}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="2" xr2:uid="{1C21822A-DF64-2543-9B26-0133C40C327C}"/>
   </bookViews>
   <sheets>
     <sheet name="LDA" sheetId="1" r:id="rId1"/>
-    <sheet name="compare" sheetId="2" r:id="rId2"/>
+    <sheet name="SVM" sheetId="3" r:id="rId2"/>
+    <sheet name="CNN" sheetId="4" r:id="rId3"/>
+    <sheet name="compare" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Digits</t>
   </si>
@@ -59,6 +61,18 @@
   </si>
   <si>
     <t>4 and 9</t>
+  </si>
+  <si>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>Accuracy (%)</t>
+  </si>
+  <si>
+    <t>Training time (seconds)</t>
+  </si>
+  <si>
+    <t>Testing time (seconds)</t>
   </si>
 </sst>
 </file>
@@ -108,13 +122,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +447,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,10 +717,417 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09814A5F-88AC-BE42-B48D-2944EA20EFD0}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.99479905437352301</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.99353876739562597</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.99497487437185905</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.99745158002038703</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.98557692307692302</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.98658410732714097</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.99551792828685304</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.992323439099284</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.99245852187028705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
+        <v>0.99353945546838995</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.99207459207459203</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.99338686820973099</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.99309324124321696</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.99187768752986205</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.99214054553860398</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.990516832622096</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.99113805970149305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>0.98873653281096996</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.99354518371400202</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.990644490644491</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.98643216080401996</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.98737864077669901</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.97756729810568299</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.989710926016659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>0.99146586345381504</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.97476340694006303</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.99491869918699205</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.98724239450441598</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.94556451612903203</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.97721644378405204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>0.99519743863393795</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.98865979381443303</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.98805970149253697</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.99028629856850703</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.93872425916624802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>0.98648648648648696</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.99427083333333299</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.962486602357985</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.98053655970541798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>0.99798590130916398</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.99016563146997905</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.99135739705134696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
+        <v>0.98151848151848198</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.97447226313205704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
+        <v>0.96570852244074601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.98942731277533003</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.95736434108527102</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.92574257425742601</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.91649694501018297</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.92376681614349798</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.95929018789144105</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.94260700389105101</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.85934291581108802</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.87710604558969296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8828CE8-A634-8142-A614-8C35CB45A2D7}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>98.54</v>
+      </c>
+      <c r="C2">
+        <v>102</v>
+      </c>
+      <c r="D2">
+        <v>1.651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E656E2E-C3DB-0540-8CE2-DE13922AE525}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
@@ -716,11 +1137,11 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
@@ -745,7 +1166,7 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>0.99809999999999999</v>
       </c>
       <c r="C3" s="2">

--- a/HW4/Tables.xlsx
+++ b/HW4/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Google Drive File Stream/My Drive/01_Courses/2020-2021 Winter Quarter/AMATH 582/UW-AMATH-582/HW4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EC32A6-96A0-934A-B260-B92F35AF9E2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FFE9E8F-2DBC-0044-A52D-F742A17A68DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="2" xr2:uid="{1C21822A-DF64-2543-9B26-0133C40C327C}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{1C21822A-DF64-2543-9B26-0133C40C327C}"/>
   </bookViews>
   <sheets>
     <sheet name="LDA" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Digits</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>Testing time (seconds)</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>LCS</t>
+  </si>
+  <si>
+    <t>FCN</t>
+  </si>
+  <si>
+    <t>CNN</t>
   </si>
 </sst>
 </file>
@@ -446,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00656BBB-CD3F-DE48-A2C1-8A623D89DA58}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,7 +733,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K16"/>
+      <selection activeCell="A15" sqref="A15:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1063,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8828CE8-A634-8142-A614-8C35CB45A2D7}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,7 +1087,7 @@
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1089,33 +1101,130 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>98.13</v>
+      </c>
+      <c r="C2">
+        <v>53</v>
+      </c>
+      <c r="D2">
+        <v>1.6459999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>98.54</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>102</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>1.651</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="B4">
+        <v>98.96</v>
+      </c>
+      <c r="C4">
+        <v>197</v>
+      </c>
+      <c r="D4">
+        <v>2.1680000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>30</v>
+      <c r="B5">
+        <v>98.85</v>
+      </c>
+      <c r="C5">
+        <v>493</v>
+      </c>
+      <c r="D5">
+        <v>2.2149999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.99489795918367396</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.99911894273127799</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.97771317829457405</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.98712871287128701</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.98676171079429698</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.98206278026905802</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.95824634655532404</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.97957198443579796</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.99178644763860402</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.95341922695738401</v>
       </c>
     </row>
   </sheetData>
@@ -1125,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E656E2E-C3DB-0540-8CE2-DE13922AE525}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1253,9 +1362,18 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1265,9 +1383,9 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1277,9 +1395,18 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>93.32</v>
+      </c>
+      <c r="C11">
+        <v>325.42</v>
+      </c>
+      <c r="D11">
+        <v>2.1059999999999999</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1287,6 +1414,25 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>98.13</v>
+      </c>
+      <c r="C13">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>1.6459999999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
